--- a/_example/style/write.xlsx
+++ b/_example/style/write.xlsx
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,26 +89,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
       <alignment/>
@@ -116,58 +101,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" shrinkToFit="true" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" shrinkToFit="true" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" shrinkToFit="true" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" indent="1" justifyLastLine="true" relativeIndent="1" vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,20 +383,20 @@
     <col customWidth="true" max="1" min="1" width="3"/>
     <col customWidth="true" max="2" min="2" width="8"/>
     <col customWidth="true" max="3" min="3" width="6"/>
-    <col customWidth="true" max="4" min="4" width="10"/>
+    <col customWidth="true" max="4" min="4" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -467,14 +404,14 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="20">
-        <v>45500.7790786783</v>
+      <c r="D2" s="4">
+        <v>45500.8368861655</v>
       </c>
     </row>
   </sheetData>
